--- a/Source Code/UMKC Project Data 08-15-2019.xlsx
+++ b/Source Code/UMKC Project Data 08-15-2019.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luipe\Dropbox\CS-451R\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luipe\OneDrive\Documents\GitHub\semester-group-assignment-group-3\Source Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB87D73B-9124-4E77-BDA2-AEC0BD69B526}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3901EB-8CED-42F6-A891-314F23475225}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1291,7 +1291,7 @@
   <dimension ref="A1:J76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
